--- a/target/test-classes/4A-ULKELER.xlsx
+++ b/target/test-classes/4A-ULKELER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5D7098-E066-1547-A323-35841A02D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B745F3-162A-4071-9C41-6EED6D9D0481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ULKELER</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Eyfel K.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hollanda </t>
+  </si>
+  <si>
     <t>Amsterdam</t>
   </si>
   <si>
@@ -115,22 +118,26 @@
     <t>Asado</t>
   </si>
   <si>
-    <t>Hollanda </t>
-  </si>
-  <si>
-    <t>Suriye</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Savas</t>
+    <t>NÜFUS</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>sinema</t>
+  </si>
+  <si>
+    <t>aksam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,31 +148,51 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -174,9 +201,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,20 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,10 +567,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -549,8 +581,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -561,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -572,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -583,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -594,96 +629,71 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -696,7 +706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -708,7 +718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
